--- a/Waterfall_graph_data.xlsx
+++ b/Waterfall_graph_data.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">February 2024</t>
+    <t xml:space="preserve">March 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Energy</t>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Core Services</t>
   </si>
   <si>
-    <t xml:space="preserve">March 2024</t>
+    <t xml:space="preserve">April 2024</t>
   </si>
 </sst>
 </file>
@@ -389,25 +389,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.308</v>
+        <v>1.658</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.224</v>
+        <v>0.233</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.15</v>
+        <v>0.061</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.261</v>
+        <v>-0.038</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.035</v>
+        <v>-0.007</v>
       </c>
       <c r="F2" t="n">
-        <v>0.018</v>
+        <v>-0.304</v>
       </c>
       <c r="G2" t="n">
-        <v>1.658</v>
+        <v>1.602</v>
       </c>
     </row>
   </sheetData>

--- a/Waterfall_graph_data.xlsx
+++ b/Waterfall_graph_data.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">March 2024</t>
+    <t xml:space="preserve">April 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Energy</t>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Core Services</t>
   </si>
   <si>
-    <t xml:space="preserve">April 2024</t>
+    <t xml:space="preserve">May 2024</t>
   </si>
 </sst>
 </file>
@@ -389,25 +389,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.658</v>
+        <v>1.602</v>
       </c>
       <c r="B2" t="n">
-        <v>0.233</v>
+        <v>0.278</v>
       </c>
       <c r="C2" t="n">
-        <v>0.061</v>
+        <v>-0.092</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.038</v>
+        <v>-0.061</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.007</v>
+        <v>-0.026</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.304</v>
+        <v>0.232</v>
       </c>
       <c r="G2" t="n">
-        <v>1.602</v>
+        <v>1.934</v>
       </c>
     </row>
   </sheetData>

--- a/Waterfall_graph_data.xlsx
+++ b/Waterfall_graph_data.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">April 2024</t>
+    <t xml:space="preserve">May 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Energy</t>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Core Services</t>
   </si>
   <si>
-    <t xml:space="preserve">May 2024</t>
+    <t xml:space="preserve">June 2024</t>
   </si>
 </sst>
 </file>
@@ -389,25 +389,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.602</v>
+        <v>1.934</v>
       </c>
       <c r="B2" t="n">
-        <v>0.278</v>
+        <v>-0.203</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.092</v>
+        <v>-0.032</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.061</v>
+        <v>0.012</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.026</v>
+        <v>0.022</v>
       </c>
       <c r="F2" t="n">
-        <v>0.232</v>
+        <v>-0.233</v>
       </c>
       <c r="G2" t="n">
-        <v>1.934</v>
+        <v>1.502</v>
       </c>
     </row>
   </sheetData>

--- a/Waterfall_graph_data.xlsx
+++ b/Waterfall_graph_data.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">May 2024</t>
+    <t xml:space="preserve">June 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Energy</t>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Core Services</t>
   </si>
   <si>
-    <t xml:space="preserve">June 2024</t>
+    <t xml:space="preserve">July 2024</t>
   </si>
 </sst>
 </file>
@@ -389,25 +389,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.934</v>
+        <v>1.502</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.203</v>
+        <v>-0.013</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.032</v>
+        <v>-0.028</v>
       </c>
       <c r="D2" t="n">
-        <v>0.012</v>
+        <v>0.079</v>
       </c>
       <c r="E2" t="n">
-        <v>0.022</v>
+        <v>-0.03</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.233</v>
+        <v>0.043</v>
       </c>
       <c r="G2" t="n">
-        <v>1.502</v>
+        <v>1.549</v>
       </c>
     </row>
   </sheetData>

--- a/Waterfall_graph_data.xlsx
+++ b/Waterfall_graph_data.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">June 2024</t>
+    <t xml:space="preserve">July 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Energy</t>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Core Services</t>
   </si>
   <si>
-    <t xml:space="preserve">July 2024</t>
+    <t xml:space="preserve">August 2024</t>
   </si>
 </sst>
 </file>
@@ -389,25 +389,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.502</v>
+        <v>1.549</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.013</v>
+        <v>-0.392</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.028</v>
+        <v>0.013</v>
       </c>
       <c r="D2" t="n">
-        <v>0.079</v>
+        <v>-0.063</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.03</v>
+        <v>-0.051</v>
       </c>
       <c r="F2" t="n">
-        <v>0.043</v>
+        <v>0.039</v>
       </c>
       <c r="G2" t="n">
-        <v>1.549</v>
+        <v>1.094</v>
       </c>
     </row>
   </sheetData>

--- a/Waterfall_graph_data.xlsx
+++ b/Waterfall_graph_data.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">July 2024</t>
+    <t xml:space="preserve">August 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Energy</t>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Core Services</t>
   </si>
   <si>
-    <t xml:space="preserve">August 2024</t>
+    <t xml:space="preserve">September 2024</t>
   </si>
 </sst>
 </file>
@@ -389,25 +389,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.549</v>
+        <v>1.094</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.392</v>
+        <v>-0.527</v>
       </c>
       <c r="C2" t="n">
-        <v>0.013</v>
+        <v>-0.061</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.063</v>
+        <v>-0.087</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.051</v>
+        <v>-0.003</v>
       </c>
       <c r="F2" t="n">
-        <v>0.039</v>
+        <v>-0.422</v>
       </c>
       <c r="G2" t="n">
-        <v>1.094</v>
+        <v>-0.004</v>
       </c>
     </row>
   </sheetData>

--- a/Waterfall_graph_data.xlsx
+++ b/Waterfall_graph_data.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">August 2024</t>
+    <t xml:space="preserve">September 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Energy</t>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Core Services</t>
   </si>
   <si>
-    <t xml:space="preserve">September 2024</t>
+    <t xml:space="preserve">October 2024</t>
   </si>
 </sst>
 </file>
@@ -389,25 +389,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.094</v>
+        <v>-0.004</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.527</v>
+        <v>0.077</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.061</v>
+        <v>0.1</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.087</v>
+        <v>0.068</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.003</v>
+        <v>0.022</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.422</v>
+        <v>-0.104</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.004</v>
+        <v>0.155</v>
       </c>
     </row>
   </sheetData>

--- a/Waterfall_graph_data.xlsx
+++ b/Waterfall_graph_data.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">September 2024</t>
+    <t xml:space="preserve">October 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Energy</t>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Core Services</t>
   </si>
   <si>
-    <t xml:space="preserve">October 2024</t>
+    <t xml:space="preserve">November 2024</t>
   </si>
 </sst>
 </file>
@@ -389,25 +389,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.004</v>
+        <v>0.155</v>
       </c>
       <c r="B2" t="n">
-        <v>0.077</v>
+        <v>0.64</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1</v>
+        <v>-0.086</v>
       </c>
       <c r="D2" t="n">
-        <v>0.068</v>
+        <v>-0.025</v>
       </c>
       <c r="E2" t="n">
-        <v>0.022</v>
+        <v>0.025</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.104</v>
+        <v>-0.172</v>
       </c>
       <c r="G2" t="n">
-        <v>0.155</v>
+        <v>0.536</v>
       </c>
     </row>
   </sheetData>

--- a/Waterfall_graph_data.xlsx
+++ b/Waterfall_graph_data.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">October 2024</t>
+    <t xml:space="preserve">November 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Energy</t>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Core Services</t>
   </si>
   <si>
-    <t xml:space="preserve">November 2024</t>
+    <t xml:space="preserve">December 2024</t>
   </si>
 </sst>
 </file>
@@ -389,25 +389,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.155</v>
+        <v>0.536</v>
       </c>
       <c r="B2" t="n">
-        <v>0.64</v>
+        <v>0.316</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.086</v>
+        <v>-0.008</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.025</v>
+        <v>-0.113</v>
       </c>
       <c r="E2" t="n">
-        <v>0.025</v>
+        <v>-0.006</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.172</v>
+        <v>0.267</v>
       </c>
       <c r="G2" t="n">
-        <v>0.536</v>
+        <v>0.984</v>
       </c>
     </row>
   </sheetData>

--- a/Waterfall_graph_data.xlsx
+++ b/Waterfall_graph_data.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">November 2024</t>
+    <t xml:space="preserve">February 2025</t>
   </si>
   <si>
     <t xml:space="preserve">Energy</t>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Core Services</t>
   </si>
   <si>
-    <t xml:space="preserve">December 2024</t>
+    <t xml:space="preserve">March 2025</t>
   </si>
 </sst>
 </file>
@@ -389,25 +389,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.536</v>
+        <v>1.459</v>
       </c>
       <c r="B2" t="n">
-        <v>0.316</v>
+        <v>0.225</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.008</v>
+        <v>0.118</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.113</v>
+        <v>0.295</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.006</v>
+        <v>0.009</v>
       </c>
       <c r="F2" t="n">
-        <v>0.267</v>
+        <v>-0.329</v>
       </c>
       <c r="G2" t="n">
-        <v>0.984</v>
+        <v>1.778</v>
       </c>
     </row>
   </sheetData>

--- a/Waterfall_graph_data.xlsx
+++ b/Waterfall_graph_data.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">February 2025</t>
+    <t xml:space="preserve">April 2025</t>
   </si>
   <si>
     <t xml:space="preserve">Energy</t>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Core Services</t>
   </si>
   <si>
-    <t xml:space="preserve">March 2025</t>
+    <t xml:space="preserve">May 2025</t>
   </si>
 </sst>
 </file>
@@ -389,25 +389,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.459</v>
+        <v>2.078</v>
       </c>
       <c r="B2" t="n">
-        <v>0.225</v>
+        <v>-0.098</v>
       </c>
       <c r="C2" t="n">
-        <v>0.118</v>
+        <v>0.122</v>
       </c>
       <c r="D2" t="n">
-        <v>0.295</v>
+        <v>0.132</v>
       </c>
       <c r="E2" t="n">
-        <v>0.009</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.329</v>
+        <v>-0.808</v>
       </c>
       <c r="G2" t="n">
-        <v>1.778</v>
+        <v>1.421</v>
       </c>
     </row>
   </sheetData>

--- a/Waterfall_graph_data.xlsx
+++ b/Waterfall_graph_data.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">April 2025</t>
+    <t xml:space="preserve">May 2025</t>
   </si>
   <si>
     <t xml:space="preserve">Energy</t>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Core Services</t>
   </si>
   <si>
-    <t xml:space="preserve">May 2025</t>
+    <t xml:space="preserve">June 2025</t>
   </si>
 </sst>
 </file>
@@ -389,25 +389,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.078</v>
+        <v>1.421</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.098</v>
+        <v>0.085</v>
       </c>
       <c r="C2" t="n">
-        <v>0.122</v>
+        <v>0.045</v>
       </c>
       <c r="D2" t="n">
-        <v>0.132</v>
+        <v>-0.067</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0.044</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.808</v>
+        <v>0.145</v>
       </c>
       <c r="G2" t="n">
-        <v>1.421</v>
+        <v>1.586</v>
       </c>
     </row>
   </sheetData>

--- a/Waterfall_graph_data.xlsx
+++ b/Waterfall_graph_data.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">May 2025</t>
+    <t xml:space="preserve">July 2025</t>
   </si>
   <si>
     <t xml:space="preserve">Energy</t>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Core Services</t>
   </si>
   <si>
-    <t xml:space="preserve">June 2025</t>
+    <t xml:space="preserve">August 2025</t>
   </si>
 </sst>
 </file>
@@ -389,25 +389,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.421</v>
+        <v>1.597</v>
       </c>
       <c r="B2" t="n">
-        <v>0.085</v>
+        <v>0.028</v>
       </c>
       <c r="C2" t="n">
-        <v>0.045</v>
+        <v>0.052</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.067</v>
+        <v>0.149</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.044</v>
+        <v>-0.016</v>
       </c>
       <c r="F2" t="n">
-        <v>0.145</v>
+        <v>0.056</v>
       </c>
       <c r="G2" t="n">
-        <v>1.586</v>
+        <v>1.864</v>
       </c>
     </row>
   </sheetData>

--- a/Waterfall_graph_data.xlsx
+++ b/Waterfall_graph_data.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">July 2025</t>
+    <t xml:space="preserve">October 2025</t>
   </si>
   <si>
     <t xml:space="preserve">Energy</t>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Core Services</t>
   </si>
   <si>
-    <t xml:space="preserve">August 2025</t>
+    <t xml:space="preserve">November 2025</t>
   </si>
 </sst>
 </file>
@@ -389,25 +389,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.597</v>
+        <v>2.767</v>
       </c>
       <c r="B2" t="n">
-        <v>0.028</v>
+        <v>0.058</v>
       </c>
       <c r="C2" t="n">
-        <v>0.052</v>
+        <v>0.02</v>
       </c>
       <c r="D2" t="n">
-        <v>0.149</v>
+        <v>0.007</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.016</v>
+        <v>-0.018</v>
       </c>
       <c r="F2" t="n">
-        <v>0.056</v>
+        <v>0.3</v>
       </c>
       <c r="G2" t="n">
-        <v>1.864</v>
+        <v>3.133</v>
       </c>
     </row>
   </sheetData>
